--- a/jsonToExcel/TZ/TZ-3-output.xlsx
+++ b/jsonToExcel/TZ/TZ-3-output.xlsx
@@ -397,3238 +397,4726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>店铺ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>SPU系统</v>
+      </c>
+      <c r="C1" t="str">
         <v>SKC系统</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>SKU系统</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>条码编码</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>SKC货号</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>SKU货号</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>中文颜色</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>尺码</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>英文颜色</v>
+      </c>
+      <c r="K1" t="str">
+        <v>缩略图</v>
+      </c>
+      <c r="L1" t="str">
+        <v>类目标签</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>634418219683784</v>
+      </c>
+      <c r="B2">
+        <v>3927440807</v>
+      </c>
+      <c r="C2">
         <v>56035397993</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>79572651454</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>47105806022</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <v>6201</v>
       </c>
-      <c r="E2" t="str">
+      <c r="G2" t="str">
         <v>6201-TZBlackLakeBlue24</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>24</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L2" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>634418219683784</v>
+      </c>
+      <c r="B3">
+        <v>3927440807</v>
+      </c>
+      <c r="C3">
         <v>56035397993</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>57681793472</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>48615707361</v>
       </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
         <v>6201</v>
       </c>
-      <c r="E3" t="str">
+      <c r="G3" t="str">
         <v>6201-TZBlackLakeBlue38</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <v>38</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L3" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>634418219683784</v>
+      </c>
+      <c r="B4">
+        <v>3927440807</v>
+      </c>
+      <c r="C4">
         <v>56035397993</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>16748187735</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>45792225271</v>
       </c>
-      <c r="D4" t="str">
+      <c r="F4" t="str">
         <v>6201</v>
       </c>
-      <c r="E4" t="str">
+      <c r="G4" t="str">
         <v>6201-TZBlackLakeBlue37</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I4" t="str">
         <v>37</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>634418219683784</v>
+      </c>
+      <c r="B5">
+        <v>3927440807</v>
+      </c>
+      <c r="C5">
         <v>56035397993</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>34418565713</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>93702419076</v>
       </c>
-      <c r="D5" t="str">
+      <c r="F5" t="str">
         <v>6201</v>
       </c>
-      <c r="E5" t="str">
+      <c r="G5" t="str">
         <v>6201-TZBlackLakeBlue36</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <v>36</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L5" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>634418219683784</v>
+      </c>
+      <c r="B6">
+        <v>3927440807</v>
+      </c>
+      <c r="C6">
         <v>56035397993</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>34695353997</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>15973936880</v>
       </c>
-      <c r="D6" t="str">
+      <c r="F6" t="str">
         <v>6201</v>
       </c>
-      <c r="E6" t="str">
+      <c r="G6" t="str">
         <v>6201-TZBlackLakeBlue30</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" t="str">
         <v>30</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L6" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>634418219683784</v>
+      </c>
+      <c r="B7">
+        <v>3927440807</v>
+      </c>
+      <c r="C7">
         <v>56035397993</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>37449623220</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>16731343491</v>
       </c>
-      <c r="D7" t="str">
+      <c r="F7" t="str">
         <v>6201</v>
       </c>
-      <c r="E7" t="str">
+      <c r="G7" t="str">
         <v>6201-TZBlackLakeBlue31</v>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" t="str">
         <v>31</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L7" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>634418219683784</v>
+      </c>
+      <c r="B8">
+        <v>3927440807</v>
+      </c>
+      <c r="C8">
         <v>56035397993</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>66795326823</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>87564578026</v>
       </c>
-      <c r="D8" t="str">
+      <c r="F8" t="str">
         <v>6201</v>
       </c>
-      <c r="E8" t="str">
+      <c r="G8" t="str">
         <v>6201-TZBlackLakeBlue35</v>
       </c>
-      <c r="F8" t="str">
+      <c r="H8" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <v>35</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L8" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>634418219683784</v>
+      </c>
+      <c r="B9">
+        <v>3927440807</v>
+      </c>
+      <c r="C9">
         <v>56035397993</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>64712974025</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>66443150328</v>
       </c>
-      <c r="D9" t="str">
+      <c r="F9" t="str">
         <v>6201</v>
       </c>
-      <c r="E9" t="str">
+      <c r="G9" t="str">
         <v>6201-TZBlackLakeBlue25</v>
       </c>
-      <c r="F9" t="str">
+      <c r="H9" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G9" t="str">
+      <c r="I9" t="str">
         <v>25</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L9" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>634418219683784</v>
+      </c>
+      <c r="B10">
+        <v>3927440807</v>
+      </c>
+      <c r="C10">
         <v>56035397993</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>27729775214</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>48442584646</v>
       </c>
-      <c r="D10" t="str">
+      <c r="F10" t="str">
         <v>6201</v>
       </c>
-      <c r="E10" t="str">
+      <c r="G10" t="str">
         <v>6201-TZBlackLakeBlue28</v>
       </c>
-      <c r="F10" t="str">
+      <c r="H10" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G10" t="str">
+      <c r="I10" t="str">
         <v>28</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L10" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>634418219683784</v>
+      </c>
+      <c r="B11">
+        <v>3927440807</v>
+      </c>
+      <c r="C11">
         <v>56035397993</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>43639768880</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>67354114475</v>
       </c>
-      <c r="D11" t="str">
+      <c r="F11" t="str">
         <v>6201</v>
       </c>
-      <c r="E11" t="str">
+      <c r="G11" t="str">
         <v>6201-TZBlackLakeBlue26</v>
       </c>
-      <c r="F11" t="str">
+      <c r="H11" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G11" t="str">
+      <c r="I11" t="str">
         <v>26</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L11" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>634418219683784</v>
+      </c>
+      <c r="B12">
+        <v>3927440807</v>
+      </c>
+      <c r="C12">
         <v>56035397993</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>47161589311</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>90079543658</v>
       </c>
-      <c r="D12" t="str">
+      <c r="F12" t="str">
         <v>6201</v>
       </c>
-      <c r="E12" t="str">
+      <c r="G12" t="str">
         <v>6201-TZBlackLakeBlue29</v>
       </c>
-      <c r="F12" t="str">
+      <c r="H12" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <v>29</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L12" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>634418219683784</v>
+      </c>
+      <c r="B13">
+        <v>3927440807</v>
+      </c>
+      <c r="C13">
         <v>56035397993</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>73946820120</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>83608449896</v>
       </c>
-      <c r="D13" t="str">
+      <c r="F13" t="str">
         <v>6201</v>
       </c>
-      <c r="E13" t="str">
+      <c r="G13" t="str">
         <v>6201-TZBlackLakeBlue34</v>
       </c>
-      <c r="F13" t="str">
+      <c r="H13" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <v>34</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L13" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>634418219683784</v>
+      </c>
+      <c r="B14">
+        <v>7983901191</v>
+      </c>
+      <c r="C14">
         <v>55334994227</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>27375175291</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>47144332497</v>
       </c>
-      <c r="D14" t="str">
+      <c r="F14" t="str">
         <v>6231</v>
       </c>
-      <c r="E14" t="str">
+      <c r="G14" t="str">
         <v>6231-TZ-Lavender-32</v>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G14" t="str">
+      <c r="I14" t="str">
         <v>32</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L14" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>634418219683784</v>
+      </c>
+      <c r="B15">
+        <v>7983901191</v>
+      </c>
+      <c r="C15">
         <v>55334994227</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>89790737025</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>89796929466</v>
       </c>
-      <c r="D15" t="str">
+      <c r="F15" t="str">
         <v>6231</v>
       </c>
-      <c r="E15" t="str">
+      <c r="G15" t="str">
         <v>6231-TZ-Pink-32</v>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G15" t="str">
+      <c r="I15" t="str">
         <v>32</v>
       </c>
-      <c r="H15" t="str">
-        <v>Pink Color</v>
+      <c r="J15" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L15" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>634418219683784</v>
+      </c>
+      <c r="B16">
+        <v>7983901191</v>
+      </c>
+      <c r="C16">
         <v>55334994227</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>32164608414</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>22574738986</v>
       </c>
-      <c r="D16" t="str">
+      <c r="F16" t="str">
         <v>6231</v>
       </c>
-      <c r="E16" t="str">
+      <c r="G16" t="str">
         <v>6231-TZ-Pink-28</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G16" t="str">
+      <c r="I16" t="str">
         <v>28</v>
       </c>
-      <c r="H16" t="str">
-        <v>Pink Color</v>
+      <c r="J16" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L16" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>634418219683784</v>
+      </c>
+      <c r="B17">
+        <v>7983901191</v>
+      </c>
+      <c r="C17">
         <v>55334994227</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>44786973118</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>13410293139</v>
       </c>
-      <c r="D17" t="str">
+      <c r="F17" t="str">
         <v>6231</v>
       </c>
-      <c r="E17" t="str">
+      <c r="G17" t="str">
         <v>6231-TZ-Pink-30</v>
       </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G17" t="str">
+      <c r="I17" t="str">
         <v>30</v>
       </c>
-      <c r="H17" t="str">
-        <v>Pink Color</v>
+      <c r="J17" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L17" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>634418219683784</v>
+      </c>
+      <c r="B18">
+        <v>7983901191</v>
+      </c>
+      <c r="C18">
         <v>55334994227</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>34505430564</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>38415429144</v>
       </c>
-      <c r="D18" t="str">
+      <c r="F18" t="str">
         <v>6231</v>
       </c>
-      <c r="E18" t="str">
+      <c r="G18" t="str">
         <v>6231-TZ-Pink-35</v>
       </c>
-      <c r="F18" t="str">
+      <c r="H18" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G18" t="str">
+      <c r="I18" t="str">
         <v>35</v>
       </c>
-      <c r="H18" t="str">
-        <v>Pink Color</v>
+      <c r="J18" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L18" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>634418219683784</v>
+      </c>
+      <c r="B19">
+        <v>7983901191</v>
+      </c>
+      <c r="C19">
         <v>55334994227</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>42497383785</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>15037533647</v>
       </c>
-      <c r="D19" t="str">
+      <c r="F19" t="str">
         <v>6231</v>
       </c>
-      <c r="E19" t="str">
+      <c r="G19" t="str">
         <v>6231-TZ-Pink-31</v>
       </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G19" t="str">
+      <c r="I19" t="str">
         <v>31</v>
       </c>
-      <c r="H19" t="str">
-        <v>Pink Color</v>
+      <c r="J19" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L19" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>634418219683784</v>
+      </c>
+      <c r="B20">
+        <v>7983901191</v>
+      </c>
+      <c r="C20">
         <v>55334994227</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>26507435094</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>78861528961</v>
       </c>
-      <c r="D20" t="str">
+      <c r="F20" t="str">
         <v>6231</v>
       </c>
-      <c r="E20" t="str">
+      <c r="G20" t="str">
         <v>6231-TZ-Pink-33</v>
       </c>
-      <c r="F20" t="str">
+      <c r="H20" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G20" t="str">
+      <c r="I20" t="str">
         <v>33</v>
       </c>
-      <c r="H20" t="str">
-        <v>Pink Color</v>
+      <c r="J20" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L20" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>634418219683784</v>
+      </c>
+      <c r="B21">
+        <v>7983901191</v>
+      </c>
+      <c r="C21">
         <v>55334994227</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>81592962401</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>97557137898</v>
       </c>
-      <c r="D21" t="str">
+      <c r="F21" t="str">
         <v>6231</v>
       </c>
-      <c r="E21" t="str">
+      <c r="G21" t="str">
         <v>6231-TZ-Pink-37</v>
       </c>
-      <c r="F21" t="str">
+      <c r="H21" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G21" t="str">
+      <c r="I21" t="str">
         <v>37</v>
       </c>
-      <c r="H21" t="str">
-        <v>Pink Color</v>
+      <c r="J21" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L21" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>634418219683784</v>
+      </c>
+      <c r="B22">
+        <v>7983901191</v>
+      </c>
+      <c r="C22">
         <v>55334994227</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>54022155688</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>95099359031</v>
       </c>
-      <c r="D22" t="str">
+      <c r="F22" t="str">
         <v>6231</v>
       </c>
-      <c r="E22" t="str">
+      <c r="G22" t="str">
         <v>6231-TZ-Pink-34</v>
       </c>
-      <c r="F22" t="str">
+      <c r="H22" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G22" t="str">
+      <c r="I22" t="str">
         <v>34</v>
       </c>
-      <c r="H22" t="str">
-        <v>Pink Color</v>
+      <c r="J22" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L22" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>634418219683784</v>
+      </c>
+      <c r="B23">
+        <v>7983901191</v>
+      </c>
+      <c r="C23">
         <v>55334994227</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>14787232067</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>22026538259</v>
       </c>
-      <c r="D23" t="str">
+      <c r="F23" t="str">
         <v>6231</v>
       </c>
-      <c r="E23" t="str">
+      <c r="G23" t="str">
         <v>6231-TZ-Lavender-35</v>
       </c>
-      <c r="F23" t="str">
+      <c r="H23" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G23" t="str">
+      <c r="I23" t="str">
         <v>35</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K23" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L23" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>634418219683784</v>
+      </c>
+      <c r="B24">
+        <v>7983901191</v>
+      </c>
+      <c r="C24">
         <v>55334994227</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>10004210014</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>53805094056</v>
       </c>
-      <c r="D24" t="str">
+      <c r="F24" t="str">
         <v>6231</v>
       </c>
-      <c r="E24" t="str">
+      <c r="G24" t="str">
         <v>6231-TZ-Lavender-37</v>
       </c>
-      <c r="F24" t="str">
+      <c r="H24" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G24" t="str">
+      <c r="I24" t="str">
         <v>37</v>
       </c>
-      <c r="H24" t="str">
+      <c r="J24" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L24" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>634418219683784</v>
+      </c>
+      <c r="B25">
+        <v>7983901191</v>
+      </c>
+      <c r="C25">
         <v>55334994227</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>77142647773</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>45599643520</v>
       </c>
-      <c r="D25" t="str">
+      <c r="F25" t="str">
         <v>6231</v>
       </c>
-      <c r="E25" t="str">
+      <c r="G25" t="str">
         <v>6231-TZ-Lavender-33</v>
       </c>
-      <c r="F25" t="str">
+      <c r="H25" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G25" t="str">
+      <c r="I25" t="str">
         <v>33</v>
       </c>
-      <c r="H25" t="str">
+      <c r="J25" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K25" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L25" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>634418219683784</v>
+      </c>
+      <c r="B26">
+        <v>7983901191</v>
+      </c>
+      <c r="C26">
         <v>55334994227</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>91071937760</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>63534223860</v>
       </c>
-      <c r="D26" t="str">
+      <c r="F26" t="str">
         <v>6231</v>
       </c>
-      <c r="E26" t="str">
+      <c r="G26" t="str">
         <v>6231-TZ-Pink-36</v>
       </c>
-      <c r="F26" t="str">
+      <c r="H26" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G26" t="str">
+      <c r="I26" t="str">
         <v>36</v>
       </c>
-      <c r="H26" t="str">
-        <v>Pink Color</v>
+      <c r="J26" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L26" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>634418219683784</v>
+      </c>
+      <c r="B27">
+        <v>7983901191</v>
+      </c>
+      <c r="C27">
         <v>55334994227</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>46702895293</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>66054146285</v>
       </c>
-      <c r="D27" t="str">
+      <c r="F27" t="str">
         <v>6231</v>
       </c>
-      <c r="E27" t="str">
+      <c r="G27" t="str">
         <v>6231-TZ-Lavender-29</v>
       </c>
-      <c r="F27" t="str">
+      <c r="H27" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G27" t="str">
+      <c r="I27" t="str">
         <v>29</v>
       </c>
-      <c r="H27" t="str">
+      <c r="J27" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L27" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>634418219683784</v>
+      </c>
+      <c r="B28">
+        <v>7983901191</v>
+      </c>
+      <c r="C28">
         <v>55334994227</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>11371121628</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>11553568679</v>
       </c>
-      <c r="D28" t="str">
+      <c r="F28" t="str">
         <v>6231</v>
       </c>
-      <c r="E28" t="str">
+      <c r="G28" t="str">
         <v>6231-TZ-Lavender-34</v>
       </c>
-      <c r="F28" t="str">
+      <c r="H28" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G28" t="str">
+      <c r="I28" t="str">
         <v>34</v>
       </c>
-      <c r="H28" t="str">
+      <c r="J28" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K28" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L28" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>634418219683784</v>
+      </c>
+      <c r="B29">
+        <v>7983901191</v>
+      </c>
+      <c r="C29">
         <v>55334994227</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>55764394746</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>89770489623</v>
       </c>
-      <c r="D29" t="str">
+      <c r="F29" t="str">
         <v>6231</v>
       </c>
-      <c r="E29" t="str">
+      <c r="G29" t="str">
         <v>6231-TZ-Pink-38</v>
       </c>
-      <c r="F29" t="str">
+      <c r="H29" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G29" t="str">
+      <c r="I29" t="str">
         <v>38</v>
       </c>
-      <c r="H29" t="str">
-        <v>Pink Color</v>
+      <c r="J29" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K29" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L29" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>634418219683784</v>
+      </c>
+      <c r="B30">
+        <v>7983901191</v>
+      </c>
+      <c r="C30">
         <v>55334994227</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>44678709540</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>47303975388</v>
       </c>
-      <c r="D30" t="str">
+      <c r="F30" t="str">
         <v>6231</v>
       </c>
-      <c r="E30" t="str">
+      <c r="G30" t="str">
         <v>6231-TZ-Lavender-36</v>
       </c>
-      <c r="F30" t="str">
+      <c r="H30" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G30" t="str">
+      <c r="I30" t="str">
         <v>36</v>
       </c>
-      <c r="H30" t="str">
+      <c r="J30" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K30" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L30" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>634418219683784</v>
+      </c>
+      <c r="B31">
+        <v>7983901191</v>
+      </c>
+      <c r="C31">
         <v>55334994227</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>51469391868</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>16547210019</v>
       </c>
-      <c r="D31" t="str">
+      <c r="F31" t="str">
         <v>6231</v>
       </c>
-      <c r="E31" t="str">
+      <c r="G31" t="str">
         <v>6231-TZ-Lavender-30</v>
       </c>
-      <c r="F31" t="str">
+      <c r="H31" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G31" t="str">
+      <c r="I31" t="str">
         <v>30</v>
       </c>
-      <c r="H31" t="str">
+      <c r="J31" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K31" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L31" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>634418219683784</v>
+      </c>
+      <c r="B32">
+        <v>7983901191</v>
+      </c>
+      <c r="C32">
         <v>55334994227</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>41199506545</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>13010586524</v>
       </c>
-      <c r="D32" t="str">
+      <c r="F32" t="str">
         <v>6231</v>
       </c>
-      <c r="E32" t="str">
+      <c r="G32" t="str">
         <v>6231-TZ-Lavender-38</v>
       </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G32" t="str">
+      <c r="I32" t="str">
         <v>38</v>
       </c>
-      <c r="H32" t="str">
+      <c r="J32" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L32" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>634418219683784</v>
+      </c>
+      <c r="B33">
+        <v>7983901191</v>
+      </c>
+      <c r="C33">
         <v>55334994227</v>
       </c>
-      <c r="B33">
+      <c r="D33">
         <v>16365905867</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>41954032236</v>
       </c>
-      <c r="D33" t="str">
+      <c r="F33" t="str">
         <v>6231</v>
       </c>
-      <c r="E33" t="str">
+      <c r="G33" t="str">
         <v>6231-TZ-Pink-29</v>
       </c>
-      <c r="F33" t="str">
+      <c r="H33" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G33" t="str">
+      <c r="I33" t="str">
         <v>29</v>
       </c>
-      <c r="H33" t="str">
-        <v>Pink Color</v>
+      <c r="J33" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K33" t="str">
+        <v>https://img.kwcdn.com/product/fancy/09031093-0cc0-44f5-b050-5045eb4d7037.jpg</v>
+      </c>
+      <c r="L33" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>634418219683784</v>
+      </c>
+      <c r="B34">
+        <v>7983901191</v>
+      </c>
+      <c r="C34">
         <v>55334994227</v>
       </c>
-      <c r="B34">
+      <c r="D34">
         <v>92869290546</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>49938979925</v>
       </c>
-      <c r="D34" t="str">
+      <c r="F34" t="str">
         <v>6231</v>
       </c>
-      <c r="E34" t="str">
+      <c r="G34" t="str">
         <v>6231-TZ-Lavender-28</v>
       </c>
-      <c r="F34" t="str">
+      <c r="H34" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G34" t="str">
+      <c r="I34" t="str">
         <v>28</v>
       </c>
-      <c r="H34" t="str">
+      <c r="J34" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K34" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L34" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>634418219683784</v>
+      </c>
+      <c r="B35">
+        <v>7983901191</v>
+      </c>
+      <c r="C35">
         <v>55334994227</v>
       </c>
-      <c r="B35">
+      <c r="D35">
         <v>77396980401</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>15502201787</v>
       </c>
-      <c r="D35" t="str">
+      <c r="F35" t="str">
         <v>6231</v>
       </c>
-      <c r="E35" t="str">
+      <c r="G35" t="str">
         <v>6231-TZ-Lavender-31</v>
       </c>
-      <c r="F35" t="str">
+      <c r="H35" t="str">
         <v>熏衣草淡紫</v>
       </c>
-      <c r="G35" t="str">
+      <c r="I35" t="str">
         <v>31</v>
       </c>
-      <c r="H35" t="str">
+      <c r="J35" t="str">
         <v>Lavender</v>
+      </c>
+      <c r="K35" t="str">
+        <v>https://img.kwcdn.com/product/fancy/21318076-2175-40a0-a2d0-7380ecf74969.jpg</v>
+      </c>
+      <c r="L35" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>634418219683784</v>
+      </c>
+      <c r="B36">
+        <v>9619271558</v>
+      </c>
+      <c r="C36">
         <v>86712438255</v>
       </c>
-      <c r="B36">
+      <c r="D36">
         <v>60131233256</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>89622190931</v>
       </c>
-      <c r="D36" t="str">
+      <c r="F36" t="str">
         <v>6202</v>
       </c>
-      <c r="E36" t="str">
+      <c r="G36" t="str">
         <v>6202-TZ-BlackWhite-26</v>
       </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
         <v>黑白</v>
       </c>
-      <c r="G36" t="str">
+      <c r="I36" t="str">
         <v>26</v>
       </c>
-      <c r="H36" t="str">
+      <c r="J36" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K36" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L36" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>634418219683784</v>
+      </c>
+      <c r="B37">
+        <v>9619271558</v>
+      </c>
+      <c r="C37">
         <v>86712438255</v>
       </c>
-      <c r="B37">
+      <c r="D37">
         <v>20680538838</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>54691067708</v>
       </c>
-      <c r="D37" t="str">
+      <c r="F37" t="str">
         <v>6202</v>
       </c>
-      <c r="E37" t="str">
+      <c r="G37" t="str">
         <v>6202-TZ-BlackWhite-30</v>
       </c>
-      <c r="F37" t="str">
+      <c r="H37" t="str">
         <v>黑白</v>
       </c>
-      <c r="G37" t="str">
+      <c r="I37" t="str">
         <v>30</v>
       </c>
-      <c r="H37" t="str">
+      <c r="J37" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L37" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>634418219683784</v>
+      </c>
+      <c r="B38">
+        <v>9619271558</v>
+      </c>
+      <c r="C38">
         <v>86712438255</v>
       </c>
-      <c r="B38">
+      <c r="D38">
         <v>66461194042</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>50372604428</v>
       </c>
-      <c r="D38" t="str">
+      <c r="F38" t="str">
         <v>6202</v>
       </c>
-      <c r="E38" t="str">
+      <c r="G38" t="str">
         <v>6202-TZ-BlackWhite-33</v>
       </c>
-      <c r="F38" t="str">
+      <c r="H38" t="str">
         <v>黑白</v>
       </c>
-      <c r="G38" t="str">
+      <c r="I38" t="str">
         <v>33</v>
       </c>
-      <c r="H38" t="str">
+      <c r="J38" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L38" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>634418219683784</v>
+      </c>
+      <c r="B39">
+        <v>9619271558</v>
+      </c>
+      <c r="C39">
         <v>86712438255</v>
       </c>
-      <c r="B39">
+      <c r="D39">
         <v>54564138118</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>75536336809</v>
       </c>
-      <c r="D39" t="str">
+      <c r="F39" t="str">
         <v>6202</v>
       </c>
-      <c r="E39" t="str">
+      <c r="G39" t="str">
         <v>6202-TZ-BlackWhite-34</v>
       </c>
-      <c r="F39" t="str">
+      <c r="H39" t="str">
         <v>黑白</v>
       </c>
-      <c r="G39" t="str">
+      <c r="I39" t="str">
         <v>34</v>
       </c>
-      <c r="H39" t="str">
+      <c r="J39" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K39" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L39" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>634418219683784</v>
+      </c>
+      <c r="B40">
+        <v>9619271558</v>
+      </c>
+      <c r="C40">
         <v>86712438255</v>
       </c>
-      <c r="B40">
+      <c r="D40">
         <v>99457857009</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>82640142864</v>
       </c>
-      <c r="D40" t="str">
+      <c r="F40" t="str">
         <v>6202</v>
       </c>
-      <c r="E40" t="str">
+      <c r="G40" t="str">
         <v>6202-TZ-BlackWhite-35</v>
       </c>
-      <c r="F40" t="str">
+      <c r="H40" t="str">
         <v>黑白</v>
       </c>
-      <c r="G40" t="str">
+      <c r="I40" t="str">
         <v>35</v>
       </c>
-      <c r="H40" t="str">
+      <c r="J40" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K40" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L40" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>634418219683784</v>
+      </c>
+      <c r="B41">
+        <v>9619271558</v>
+      </c>
+      <c r="C41">
         <v>86712438255</v>
       </c>
-      <c r="B41">
+      <c r="D41">
         <v>70848863593</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>79584635546</v>
       </c>
-      <c r="D41" t="str">
+      <c r="F41" t="str">
         <v>6202</v>
       </c>
-      <c r="E41" t="str">
+      <c r="G41" t="str">
         <v>6202-TZ-BlackWhite-28</v>
       </c>
-      <c r="F41" t="str">
+      <c r="H41" t="str">
         <v>黑白</v>
       </c>
-      <c r="G41" t="str">
+      <c r="I41" t="str">
         <v>28</v>
       </c>
-      <c r="H41" t="str">
+      <c r="J41" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K41" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L41" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>634418219683784</v>
+      </c>
+      <c r="B42">
+        <v>9619271558</v>
+      </c>
+      <c r="C42">
         <v>86712438255</v>
       </c>
-      <c r="B42">
+      <c r="D42">
         <v>21115278277</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>24334116501</v>
       </c>
-      <c r="D42" t="str">
+      <c r="F42" t="str">
         <v>6202</v>
       </c>
-      <c r="E42" t="str">
+      <c r="G42" t="str">
         <v>6202-TZ-BlackWhite-31</v>
       </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
         <v>黑白</v>
       </c>
-      <c r="G42" t="str">
+      <c r="I42" t="str">
         <v>31</v>
       </c>
-      <c r="H42" t="str">
+      <c r="J42" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L42" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>634418219683784</v>
+      </c>
+      <c r="B43">
+        <v>9619271558</v>
+      </c>
+      <c r="C43">
         <v>86712438255</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>79505071183</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>80003005302</v>
       </c>
-      <c r="D43" t="str">
+      <c r="F43" t="str">
         <v>6202</v>
       </c>
-      <c r="E43" t="str">
+      <c r="G43" t="str">
         <v>6202-TZ-BlackWhite-37</v>
       </c>
-      <c r="F43" t="str">
+      <c r="H43" t="str">
         <v>黑白</v>
       </c>
-      <c r="G43" t="str">
+      <c r="I43" t="str">
         <v>37</v>
       </c>
-      <c r="H43" t="str">
+      <c r="J43" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K43" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L43" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>634418219683784</v>
+      </c>
+      <c r="B44">
+        <v>9619271558</v>
+      </c>
+      <c r="C44">
         <v>86712438255</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>14591996205</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>51059957600</v>
       </c>
-      <c r="D44" t="str">
+      <c r="F44" t="str">
         <v>6202</v>
       </c>
-      <c r="E44" t="str">
+      <c r="G44" t="str">
         <v>6202-TZ-BlackWhite-32</v>
       </c>
-      <c r="F44" t="str">
+      <c r="H44" t="str">
         <v>黑白</v>
       </c>
-      <c r="G44" t="str">
+      <c r="I44" t="str">
         <v>32</v>
       </c>
-      <c r="H44" t="str">
+      <c r="J44" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K44" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L44" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>634418219683784</v>
+      </c>
+      <c r="B45">
+        <v>9619271558</v>
+      </c>
+      <c r="C45">
         <v>86712438255</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>23746984966</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>80145634664</v>
       </c>
-      <c r="D45" t="str">
+      <c r="F45" t="str">
         <v>6202</v>
       </c>
-      <c r="E45" t="str">
+      <c r="G45" t="str">
         <v>6202-TZ-BlackWhite-36</v>
       </c>
-      <c r="F45" t="str">
+      <c r="H45" t="str">
         <v>黑白</v>
       </c>
-      <c r="G45" t="str">
+      <c r="I45" t="str">
         <v>36</v>
       </c>
-      <c r="H45" t="str">
+      <c r="J45" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L45" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>634418219683784</v>
+      </c>
+      <c r="B46">
+        <v>9619271558</v>
+      </c>
+      <c r="C46">
         <v>86712438255</v>
       </c>
-      <c r="B46">
+      <c r="D46">
         <v>92544496141</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>86125824215</v>
       </c>
-      <c r="D46" t="str">
+      <c r="F46" t="str">
         <v>6202</v>
       </c>
-      <c r="E46" t="str">
+      <c r="G46" t="str">
         <v>6202-TZ-BlackWhite-27</v>
       </c>
-      <c r="F46" t="str">
+      <c r="H46" t="str">
         <v>黑白</v>
       </c>
-      <c r="G46" t="str">
+      <c r="I46" t="str">
         <v>27</v>
       </c>
-      <c r="H46" t="str">
+      <c r="J46" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K46" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L46" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>634418219683784</v>
+      </c>
+      <c r="B47">
+        <v>9619271558</v>
+      </c>
+      <c r="C47">
         <v>86712438255</v>
       </c>
-      <c r="B47">
+      <c r="D47">
         <v>11854704879</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>82986513530</v>
       </c>
-      <c r="D47" t="str">
+      <c r="F47" t="str">
         <v>6202</v>
       </c>
-      <c r="E47" t="str">
+      <c r="G47" t="str">
         <v>6202-TZ-BlackWhite-29</v>
       </c>
-      <c r="F47" t="str">
+      <c r="H47" t="str">
         <v>黑白</v>
       </c>
-      <c r="G47" t="str">
+      <c r="I47" t="str">
         <v>29</v>
       </c>
-      <c r="H47" t="str">
+      <c r="J47" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K47" t="str">
+        <v>https://img.kwcdn.com/product/fancy/dee01751-7a6d-4a09-b191-68fd0a66c204.jpg</v>
+      </c>
+      <c r="L47" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>634418219683784</v>
+      </c>
+      <c r="B48">
+        <v>3356166983</v>
+      </c>
+      <c r="C48">
         <v>16225901941</v>
       </c>
-      <c r="B48">
+      <c r="D48">
         <v>87840399915</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>49179618605</v>
       </c>
-      <c r="D48" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E48" t="str">
+      <c r="F48" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G48" t="str">
         <v>8570-TZ-DarkaBlue-30</v>
       </c>
-      <c r="F48" t="str">
+      <c r="H48" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G48" t="str">
+      <c r="I48" t="str">
         <v>30</v>
       </c>
-      <c r="H48" t="str">
+      <c r="J48" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K48" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L48" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>634418219683784</v>
+      </c>
+      <c r="B49">
+        <v>3356166983</v>
+      </c>
+      <c r="C49">
         <v>16225901941</v>
       </c>
-      <c r="B49">
+      <c r="D49">
         <v>96143398126</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>94908253890</v>
       </c>
-      <c r="D49" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G49" t="str">
         <v>8570-TZ-BlackWhite-36</v>
       </c>
-      <c r="F49" t="str">
+      <c r="H49" t="str">
         <v>黑白</v>
       </c>
-      <c r="G49" t="str">
+      <c r="I49" t="str">
         <v>36</v>
       </c>
-      <c r="H49" t="str">
+      <c r="J49" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K49" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L49" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>634418219683784</v>
+      </c>
+      <c r="B50">
+        <v>3356166983</v>
+      </c>
+      <c r="C50">
         <v>16225901941</v>
       </c>
-      <c r="B50">
+      <c r="D50">
         <v>73966705076</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>18443408920</v>
       </c>
-      <c r="D50" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="F50" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G50" t="str">
         <v>8570-TZ-BlackWhite-31</v>
       </c>
-      <c r="F50" t="str">
+      <c r="H50" t="str">
         <v>黑白</v>
       </c>
-      <c r="G50" t="str">
+      <c r="I50" t="str">
         <v>31</v>
       </c>
-      <c r="H50" t="str">
+      <c r="J50" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K50" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L50" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>634418219683784</v>
+      </c>
+      <c r="B51">
+        <v>3356166983</v>
+      </c>
+      <c r="C51">
         <v>16225901941</v>
       </c>
-      <c r="B51">
+      <c r="D51">
         <v>72747527512</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>59984216684</v>
       </c>
-      <c r="D51" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E51" t="str">
+      <c r="F51" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G51" t="str">
         <v>8570-TZ-BlackWhite-29</v>
       </c>
-      <c r="F51" t="str">
+      <c r="H51" t="str">
         <v>黑白</v>
       </c>
-      <c r="G51" t="str">
+      <c r="I51" t="str">
         <v>29</v>
       </c>
-      <c r="H51" t="str">
+      <c r="J51" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L51" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>634418219683784</v>
+      </c>
+      <c r="B52">
+        <v>3356166983</v>
+      </c>
+      <c r="C52">
         <v>16225901941</v>
       </c>
-      <c r="B52">
+      <c r="D52">
         <v>14384639249</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>54809919993</v>
       </c>
-      <c r="D52" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E52" t="str">
+      <c r="F52" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G52" t="str">
         <v>8570-TZ-BlackWhite-33</v>
       </c>
-      <c r="F52" t="str">
+      <c r="H52" t="str">
         <v>黑白</v>
       </c>
-      <c r="G52" t="str">
+      <c r="I52" t="str">
         <v>33</v>
       </c>
-      <c r="H52" t="str">
+      <c r="J52" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K52" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L52" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>634418219683784</v>
+      </c>
+      <c r="B53">
+        <v>3356166983</v>
+      </c>
+      <c r="C53">
         <v>16225901941</v>
       </c>
-      <c r="B53">
+      <c r="D53">
         <v>18425168084</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>57407136610</v>
       </c>
-      <c r="D53" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E53" t="str">
+      <c r="F53" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G53" t="str">
         <v>8570-TZ-DarkaBlue-38</v>
       </c>
-      <c r="F53" t="str">
+      <c r="H53" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G53" t="str">
+      <c r="I53" t="str">
         <v>38</v>
       </c>
-      <c r="H53" t="str">
+      <c r="J53" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L53" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>634418219683784</v>
+      </c>
+      <c r="B54">
+        <v>3356166983</v>
+      </c>
+      <c r="C54">
         <v>16225901941</v>
       </c>
-      <c r="B54">
+      <c r="D54">
         <v>37306933085</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>31633140115</v>
       </c>
-      <c r="D54" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E54" t="str">
+      <c r="F54" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G54" t="str">
         <v>8570-TZ-DarkaBlue-34</v>
       </c>
-      <c r="F54" t="str">
+      <c r="H54" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G54" t="str">
+      <c r="I54" t="str">
         <v>34</v>
       </c>
-      <c r="H54" t="str">
+      <c r="J54" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L54" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>634418219683784</v>
+      </c>
+      <c r="B55">
+        <v>3356166983</v>
+      </c>
+      <c r="C55">
         <v>16225901941</v>
       </c>
-      <c r="B55">
+      <c r="D55">
         <v>65214022120</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>94550876385</v>
       </c>
-      <c r="D55" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G55" t="str">
         <v>8570-TZ-DarkaBlue-36</v>
       </c>
-      <c r="F55" t="str">
+      <c r="H55" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G55" t="str">
+      <c r="I55" t="str">
         <v>36</v>
       </c>
-      <c r="H55" t="str">
+      <c r="J55" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L55" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <v>634418219683784</v>
+      </c>
+      <c r="B56">
+        <v>3356166983</v>
+      </c>
+      <c r="C56">
         <v>16225901941</v>
       </c>
-      <c r="B56">
+      <c r="D56">
         <v>39571135894</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>67209959884</v>
       </c>
-      <c r="D56" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E56" t="str">
+      <c r="F56" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G56" t="str">
         <v>8570-TZ-BlackWhite-35</v>
       </c>
-      <c r="F56" t="str">
+      <c r="H56" t="str">
         <v>黑白</v>
       </c>
-      <c r="G56" t="str">
+      <c r="I56" t="str">
         <v>35</v>
       </c>
-      <c r="H56" t="str">
+      <c r="J56" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L56" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>634418219683784</v>
+      </c>
+      <c r="B57">
+        <v>3356166983</v>
+      </c>
+      <c r="C57">
         <v>16225901941</v>
       </c>
-      <c r="B57">
+      <c r="D57">
         <v>29252379444</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>39659277844</v>
       </c>
-      <c r="D57" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E57" t="str">
+      <c r="F57" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G57" t="str">
         <v>8570-TZ-DarkaBlue-28</v>
       </c>
-      <c r="F57" t="str">
+      <c r="H57" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G57" t="str">
+      <c r="I57" t="str">
         <v>28</v>
       </c>
-      <c r="H57" t="str">
+      <c r="J57" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K57" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L57" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
+        <v>634418219683784</v>
+      </c>
+      <c r="B58">
+        <v>3356166983</v>
+      </c>
+      <c r="C58">
         <v>16225901941</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>76371974582</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>45983037430</v>
       </c>
-      <c r="D58" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E58" t="str">
+      <c r="F58" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G58" t="str">
         <v>8570-TZ-BlackWhite-28</v>
       </c>
-      <c r="F58" t="str">
+      <c r="H58" t="str">
         <v>黑白</v>
       </c>
-      <c r="G58" t="str">
+      <c r="I58" t="str">
         <v>28</v>
       </c>
-      <c r="H58" t="str">
+      <c r="J58" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K58" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L58" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
+        <v>634418219683784</v>
+      </c>
+      <c r="B59">
+        <v>3356166983</v>
+      </c>
+      <c r="C59">
         <v>16225901941</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>88408744628</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>75694815166</v>
       </c>
-      <c r="D59" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E59" t="str">
+      <c r="F59" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G59" t="str">
         <v>8570-TZ-BlackWhite-34</v>
       </c>
-      <c r="F59" t="str">
+      <c r="H59" t="str">
         <v>黑白</v>
       </c>
-      <c r="G59" t="str">
+      <c r="I59" t="str">
         <v>34</v>
       </c>
-      <c r="H59" t="str">
+      <c r="J59" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L59" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
+        <v>634418219683784</v>
+      </c>
+      <c r="B60">
+        <v>3356166983</v>
+      </c>
+      <c r="C60">
         <v>16225901941</v>
       </c>
-      <c r="B60">
+      <c r="D60">
         <v>87598892108</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>47291257845</v>
       </c>
-      <c r="D60" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="F60" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G60" t="str">
         <v>8570-TZ-BlackWhite-38</v>
       </c>
-      <c r="F60" t="str">
+      <c r="H60" t="str">
         <v>黑白</v>
       </c>
-      <c r="G60" t="str">
+      <c r="I60" t="str">
         <v>38</v>
       </c>
-      <c r="H60" t="str">
+      <c r="J60" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L60" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
+        <v>634418219683784</v>
+      </c>
+      <c r="B61">
+        <v>3356166983</v>
+      </c>
+      <c r="C61">
         <v>16225901941</v>
       </c>
-      <c r="B61">
+      <c r="D61">
         <v>33242228163</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>83751302631</v>
       </c>
-      <c r="D61" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E61" t="str">
+      <c r="F61" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G61" t="str">
         <v>8570-TZ-DarkaBlue-29</v>
       </c>
-      <c r="F61" t="str">
+      <c r="H61" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G61" t="str">
+      <c r="I61" t="str">
         <v>29</v>
       </c>
-      <c r="H61" t="str">
+      <c r="J61" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L61" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
+        <v>634418219683784</v>
+      </c>
+      <c r="B62">
+        <v>3356166983</v>
+      </c>
+      <c r="C62">
         <v>16225901941</v>
       </c>
-      <c r="B62">
+      <c r="D62">
         <v>32844680434</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>74374433309</v>
       </c>
-      <c r="D62" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E62" t="str">
+      <c r="F62" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G62" t="str">
         <v>8570-TZ-DarkaBlue-32</v>
       </c>
-      <c r="F62" t="str">
+      <c r="H62" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G62" t="str">
+      <c r="I62" t="str">
         <v>32</v>
       </c>
-      <c r="H62" t="str">
+      <c r="J62" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L62" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <v>634418219683784</v>
+      </c>
+      <c r="B63">
+        <v>3356166983</v>
+      </c>
+      <c r="C63">
         <v>16225901941</v>
       </c>
-      <c r="B63">
+      <c r="D63">
         <v>90945086628</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>68758469022</v>
       </c>
-      <c r="D63" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E63" t="str">
+      <c r="F63" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G63" t="str">
         <v>8570-TZ-BlackWhite-30</v>
       </c>
-      <c r="F63" t="str">
+      <c r="H63" t="str">
         <v>黑白</v>
       </c>
-      <c r="G63" t="str">
+      <c r="I63" t="str">
         <v>30</v>
       </c>
-      <c r="H63" t="str">
+      <c r="J63" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K63" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L63" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
+        <v>634418219683784</v>
+      </c>
+      <c r="B64">
+        <v>3356166983</v>
+      </c>
+      <c r="C64">
         <v>16225901941</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>40322869140</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>78506164396</v>
       </c>
-      <c r="D64" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E64" t="str">
+      <c r="F64" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G64" t="str">
         <v>8570-TZ-DarkaBlue-37</v>
       </c>
-      <c r="F64" t="str">
+      <c r="H64" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G64" t="str">
+      <c r="I64" t="str">
         <v>37</v>
       </c>
-      <c r="H64" t="str">
+      <c r="J64" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K64" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L64" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <v>634418219683784</v>
+      </c>
+      <c r="B65">
+        <v>3356166983</v>
+      </c>
+      <c r="C65">
         <v>16225901941</v>
       </c>
-      <c r="B65">
+      <c r="D65">
         <v>34292274762</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>44116434663</v>
       </c>
-      <c r="D65" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E65" t="str">
+      <c r="F65" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G65" t="str">
         <v>8570-TZ-DarkaBlue-31</v>
       </c>
-      <c r="F65" t="str">
+      <c r="H65" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G65" t="str">
+      <c r="I65" t="str">
         <v>31</v>
       </c>
-      <c r="H65" t="str">
+      <c r="J65" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K65" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L65" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>634418219683784</v>
+      </c>
+      <c r="B66">
+        <v>3356166983</v>
+      </c>
+      <c r="C66">
         <v>16225901941</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>25741750262</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>47286270273</v>
       </c>
-      <c r="D66" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E66" t="str">
+      <c r="F66" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G66" t="str">
         <v>8570-TZ-BlackWhite-32</v>
       </c>
-      <c r="F66" t="str">
+      <c r="H66" t="str">
         <v>黑白</v>
       </c>
-      <c r="G66" t="str">
+      <c r="I66" t="str">
         <v>32</v>
       </c>
-      <c r="H66" t="str">
+      <c r="J66" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K66" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L66" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
+        <v>634418219683784</v>
+      </c>
+      <c r="B67">
+        <v>3356166983</v>
+      </c>
+      <c r="C67">
         <v>16225901941</v>
       </c>
-      <c r="B67">
+      <c r="D67">
         <v>35577664081</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>56938785512</v>
       </c>
-      <c r="D67" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E67" t="str">
+      <c r="F67" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G67" t="str">
         <v>8570-TZ-BlackWhite-37</v>
       </c>
-      <c r="F67" t="str">
+      <c r="H67" t="str">
         <v>黑白</v>
       </c>
-      <c r="G67" t="str">
+      <c r="I67" t="str">
         <v>37</v>
       </c>
-      <c r="H67" t="str">
+      <c r="J67" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K67" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1aa47e89-a4ce-4329-8b18-8f8c85f73c7b.jpg</v>
+      </c>
+      <c r="L67" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
+        <v>634418219683784</v>
+      </c>
+      <c r="B68">
+        <v>3356166983</v>
+      </c>
+      <c r="C68">
         <v>16225901941</v>
       </c>
-      <c r="B68">
+      <c r="D68">
         <v>58856414139</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>96106539905</v>
       </c>
-      <c r="D68" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E68" t="str">
+      <c r="F68" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G68" t="str">
         <v>8570-TZ-DarkaBlue-33</v>
       </c>
-      <c r="F68" t="str">
+      <c r="H68" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G68" t="str">
+      <c r="I68" t="str">
         <v>33</v>
       </c>
-      <c r="H68" t="str">
+      <c r="J68" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K68" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L68" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
+        <v>634418219683784</v>
+      </c>
+      <c r="B69">
+        <v>3356166983</v>
+      </c>
+      <c r="C69">
         <v>16225901941</v>
       </c>
-      <c r="B69">
+      <c r="D69">
         <v>34423715329</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>79140647087</v>
       </c>
-      <c r="D69" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E69" t="str">
+      <c r="F69" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G69" t="str">
         <v>8570-TZ-DarkaBlue-35</v>
       </c>
-      <c r="F69" t="str">
+      <c r="H69" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G69" t="str">
+      <c r="I69" t="str">
         <v>35</v>
       </c>
-      <c r="H69" t="str">
+      <c r="J69" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K69" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e97b2d9f-3414-4175-970e-4d64edf90a0e.jpg</v>
+      </c>
+      <c r="L69" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
+        <v>634418219683784</v>
+      </c>
+      <c r="B70">
+        <v>7090997991</v>
+      </c>
+      <c r="C70">
         <v>56105672168</v>
       </c>
-      <c r="B70">
+      <c r="D70">
         <v>97694810214</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>46269463184</v>
       </c>
-      <c r="D70" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E70" t="str">
-        <v/>
-      </c>
       <c r="F70" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G70" t="str">
+      <c r="I70" t="str">
         <v>34</v>
       </c>
-      <c r="H70" t="str">
+      <c r="J70" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K70" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L70" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
+        <v>634418219683784</v>
+      </c>
+      <c r="B71">
+        <v>7090997991</v>
+      </c>
+      <c r="C71">
         <v>56105672168</v>
       </c>
-      <c r="B71">
+      <c r="D71">
         <v>94204809814</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>80189678837</v>
       </c>
-      <c r="D71" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E71" t="str">
-        <v/>
-      </c>
       <c r="F71" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
         <v>黑白</v>
       </c>
-      <c r="G71" t="str">
+      <c r="I71" t="str">
         <v>37</v>
       </c>
-      <c r="H71" t="str">
+      <c r="J71" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L71" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
+        <v>634418219683784</v>
+      </c>
+      <c r="B72">
+        <v>7090997991</v>
+      </c>
+      <c r="C72">
         <v>56105672168</v>
       </c>
-      <c r="B72">
+      <c r="D72">
         <v>91938931990</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>30935053718</v>
       </c>
-      <c r="D72" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E72" t="str">
-        <v/>
-      </c>
       <c r="F72" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
         <v>黑白</v>
       </c>
-      <c r="G72" t="str">
+      <c r="I72" t="str">
         <v>36</v>
       </c>
-      <c r="H72" t="str">
+      <c r="J72" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K72" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L72" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
+        <v>634418219683784</v>
+      </c>
+      <c r="B73">
+        <v>7090997991</v>
+      </c>
+      <c r="C73">
         <v>56105672168</v>
       </c>
-      <c r="B73">
+      <c r="D73">
         <v>91275704941</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>24572478901</v>
       </c>
-      <c r="D73" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E73" t="str">
-        <v/>
-      </c>
       <c r="F73" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G73" t="str">
+      <c r="I73" t="str">
         <v>29</v>
       </c>
-      <c r="H73" t="str">
+      <c r="J73" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K73" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L73" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
+        <v>634418219683784</v>
+      </c>
+      <c r="B74">
+        <v>7090997991</v>
+      </c>
+      <c r="C74">
         <v>56105672168</v>
       </c>
-      <c r="B74">
+      <c r="D74">
         <v>90671969365</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>91566047513</v>
       </c>
-      <c r="D74" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E74" t="str">
-        <v/>
-      </c>
       <c r="F74" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
         <v>黑白</v>
       </c>
-      <c r="G74" t="str">
+      <c r="I74" t="str">
         <v>34</v>
       </c>
-      <c r="H74" t="str">
+      <c r="J74" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K74" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L74" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>634418219683784</v>
+      </c>
+      <c r="B75">
+        <v>7090997991</v>
+      </c>
+      <c r="C75">
         <v>56105672168</v>
       </c>
-      <c r="B75">
+      <c r="D75">
         <v>88952295837</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>64441831088</v>
       </c>
-      <c r="D75" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E75" t="str">
-        <v/>
-      </c>
       <c r="F75" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G75" t="str">
+      <c r="I75" t="str">
         <v>33</v>
       </c>
-      <c r="H75" t="str">
+      <c r="J75" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K75" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L75" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
+        <v>634418219683784</v>
+      </c>
+      <c r="B76">
+        <v>7090997991</v>
+      </c>
+      <c r="C76">
         <v>56105672168</v>
       </c>
-      <c r="B76">
+      <c r="D76">
         <v>88904971946</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>80270366583</v>
       </c>
-      <c r="D76" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E76" t="str">
-        <v/>
-      </c>
       <c r="F76" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+      <c r="H76" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G76" t="str">
+      <c r="I76" t="str">
         <v>32</v>
       </c>
-      <c r="H76" t="str">
+      <c r="J76" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K76" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L76" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
+        <v>634418219683784</v>
+      </c>
+      <c r="B77">
+        <v>7090997991</v>
+      </c>
+      <c r="C77">
         <v>56105672168</v>
       </c>
-      <c r="B77">
+      <c r="D77">
         <v>88081957775</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>19286175867</v>
       </c>
-      <c r="D77" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E77" t="str">
-        <v/>
-      </c>
       <c r="F77" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
         <v>黑白</v>
       </c>
-      <c r="G77" t="str">
+      <c r="I77" t="str">
         <v>29</v>
       </c>
-      <c r="H77" t="str">
+      <c r="J77" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K77" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L77" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
+        <v>634418219683784</v>
+      </c>
+      <c r="B78">
+        <v>7090997991</v>
+      </c>
+      <c r="C78">
         <v>56105672168</v>
       </c>
-      <c r="B78">
+      <c r="D78">
         <v>84450284449</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>97877512270</v>
       </c>
-      <c r="D78" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E78" t="str">
-        <v/>
-      </c>
       <c r="F78" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G78" t="str">
+      <c r="I78" t="str">
         <v>29</v>
       </c>
-      <c r="H78" t="str">
+      <c r="J78" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K78" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L78" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
+        <v>634418219683784</v>
+      </c>
+      <c r="B79">
+        <v>7090997991</v>
+      </c>
+      <c r="C79">
         <v>56105672168</v>
       </c>
-      <c r="B79">
+      <c r="D79">
         <v>83661396331</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>53725246216</v>
       </c>
-      <c r="D79" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E79" t="str">
-        <v/>
-      </c>
       <c r="F79" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+      <c r="H79" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G79" t="str">
+      <c r="I79" t="str">
         <v>34</v>
       </c>
-      <c r="H79" t="str">
+      <c r="J79" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K79" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L79" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
+        <v>634418219683784</v>
+      </c>
+      <c r="B80">
+        <v>7090997991</v>
+      </c>
+      <c r="C80">
         <v>56105672168</v>
       </c>
-      <c r="B80">
+      <c r="D80">
         <v>77931769176</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>55127593887</v>
       </c>
-      <c r="D80" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E80" t="str">
-        <v/>
-      </c>
       <c r="F80" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="str">
         <v>黑白</v>
       </c>
-      <c r="G80" t="str">
+      <c r="I80" t="str">
         <v>33</v>
       </c>
-      <c r="H80" t="str">
+      <c r="J80" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K80" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L80" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
+        <v>634418219683784</v>
+      </c>
+      <c r="B81">
+        <v>7090997991</v>
+      </c>
+      <c r="C81">
         <v>56105672168</v>
       </c>
-      <c r="B81">
+      <c r="D81">
         <v>73263985649</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>60743637926</v>
       </c>
-      <c r="D81" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E81" t="str">
-        <v/>
-      </c>
       <c r="F81" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G81" t="str">
+      <c r="I81" t="str">
         <v>28</v>
       </c>
-      <c r="H81" t="str">
+      <c r="J81" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K81" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L81" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
+        <v>634418219683784</v>
+      </c>
+      <c r="B82">
+        <v>7090997991</v>
+      </c>
+      <c r="C82">
         <v>56105672168</v>
       </c>
-      <c r="B82">
+      <c r="D82">
         <v>67875084555</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>32906456038</v>
       </c>
-      <c r="D82" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E82" t="str">
-        <v/>
-      </c>
       <c r="F82" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G82" t="str">
+      <c r="I82" t="str">
         <v>36</v>
       </c>
-      <c r="H82" t="str">
+      <c r="J82" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K82" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L82" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
+        <v>634418219683784</v>
+      </c>
+      <c r="B83">
+        <v>7090997991</v>
+      </c>
+      <c r="C83">
         <v>56105672168</v>
       </c>
-      <c r="B83">
+      <c r="D83">
         <v>62090825752</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>13264175156</v>
       </c>
-      <c r="D83" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E83" t="str">
-        <v/>
-      </c>
       <c r="F83" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G83" t="str">
+      <c r="I83" t="str">
         <v>31</v>
       </c>
-      <c r="H83" t="str">
+      <c r="J83" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K83" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L83" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
+        <v>634418219683784</v>
+      </c>
+      <c r="B84">
+        <v>7090997991</v>
+      </c>
+      <c r="C84">
         <v>56105672168</v>
       </c>
-      <c r="B84">
+      <c r="D84">
         <v>61936481109</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>99234782013</v>
       </c>
-      <c r="D84" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E84" t="str">
-        <v/>
-      </c>
       <c r="F84" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G84" t="str">
+      <c r="I84" t="str">
         <v>30</v>
       </c>
-      <c r="H84" t="str">
+      <c r="J84" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K84" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L84" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
+        <v>634418219683784</v>
+      </c>
+      <c r="B85">
+        <v>7090997991</v>
+      </c>
+      <c r="C85">
         <v>56105672168</v>
       </c>
-      <c r="B85">
+      <c r="D85">
         <v>59748305030</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>85556057247</v>
       </c>
-      <c r="D85" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E85" t="str">
-        <v/>
-      </c>
       <c r="F85" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G85" t="str">
+      <c r="I85" t="str">
         <v>38</v>
       </c>
-      <c r="H85" t="str">
+      <c r="J85" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K85" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L85" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
+        <v>634418219683784</v>
+      </c>
+      <c r="B86">
+        <v>7090997991</v>
+      </c>
+      <c r="C86">
         <v>56105672168</v>
       </c>
-      <c r="B86">
+      <c r="D86">
         <v>59439631061</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>78298090190</v>
       </c>
-      <c r="D86" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E86" t="str">
-        <v/>
-      </c>
       <c r="F86" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G86" t="str">
+      <c r="I86" t="str">
         <v>37</v>
       </c>
-      <c r="H86" t="str">
+      <c r="J86" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K86" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L86" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
+        <v>634418219683784</v>
+      </c>
+      <c r="B87">
+        <v>7090997991</v>
+      </c>
+      <c r="C87">
         <v>56105672168</v>
       </c>
-      <c r="B87">
+      <c r="D87">
         <v>58267374434</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>47066838625</v>
       </c>
-      <c r="D87" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E87" t="str">
-        <v/>
-      </c>
       <c r="F87" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G87" t="str">
+      <c r="I87" t="str">
         <v>37</v>
       </c>
-      <c r="H87" t="str">
+      <c r="J87" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K87" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L87" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
+        <v>634418219683784</v>
+      </c>
+      <c r="B88">
+        <v>7090997991</v>
+      </c>
+      <c r="C88">
         <v>56105672168</v>
       </c>
-      <c r="B88">
+      <c r="D88">
         <v>53540164955</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>41565776881</v>
       </c>
-      <c r="D88" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E88" t="str">
-        <v/>
-      </c>
       <c r="F88" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G88" t="str">
+      <c r="I88" t="str">
         <v>35</v>
       </c>
-      <c r="H88" t="str">
+      <c r="J88" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K88" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L88" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
+        <v>634418219683784</v>
+      </c>
+      <c r="B89">
+        <v>7090997991</v>
+      </c>
+      <c r="C89">
         <v>56105672168</v>
       </c>
-      <c r="B89">
+      <c r="D89">
         <v>49130600056</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>21911580870</v>
       </c>
-      <c r="D89" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E89" t="str">
-        <v/>
-      </c>
       <c r="F89" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G89" t="str">
+      <c r="I89" t="str">
         <v>30</v>
       </c>
-      <c r="H89" t="str">
+      <c r="J89" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K89" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L89" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
+        <v>634418219683784</v>
+      </c>
+      <c r="B90">
+        <v>7090997991</v>
+      </c>
+      <c r="C90">
         <v>56105672168</v>
       </c>
-      <c r="B90">
+      <c r="D90">
         <v>46008533313</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>76557963424</v>
       </c>
-      <c r="D90" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E90" t="str">
-        <v/>
-      </c>
       <c r="F90" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G90" t="str">
+      <c r="I90" t="str">
         <v>32</v>
       </c>
-      <c r="H90" t="str">
+      <c r="J90" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K90" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L90" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
+        <v>634418219683784</v>
+      </c>
+      <c r="B91">
+        <v>7090997991</v>
+      </c>
+      <c r="C91">
         <v>56105672168</v>
       </c>
-      <c r="B91">
+      <c r="D91">
         <v>45846168094</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>31106836290</v>
       </c>
-      <c r="D91" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E91" t="str">
-        <v/>
-      </c>
       <c r="F91" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
         <v>黑白</v>
       </c>
-      <c r="G91" t="str">
+      <c r="I91" t="str">
         <v>31</v>
       </c>
-      <c r="H91" t="str">
+      <c r="J91" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K91" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L91" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
+        <v>634418219683784</v>
+      </c>
+      <c r="B92">
+        <v>7090997991</v>
+      </c>
+      <c r="C92">
         <v>56105672168</v>
       </c>
-      <c r="B92">
+      <c r="D92">
         <v>36546262935</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>93916043498</v>
       </c>
-      <c r="D92" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E92" t="str">
-        <v/>
-      </c>
       <c r="F92" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G92" t="str">
+      <c r="I92" t="str">
         <v>36</v>
       </c>
-      <c r="H92" t="str">
+      <c r="J92" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K92" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L92" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
+        <v>634418219683784</v>
+      </c>
+      <c r="B93">
+        <v>7090997991</v>
+      </c>
+      <c r="C93">
         <v>56105672168</v>
       </c>
-      <c r="B93">
+      <c r="D93">
         <v>35848364835</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>88826440273</v>
       </c>
-      <c r="D93" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E93" t="str">
-        <v/>
-      </c>
       <c r="F93" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G93" t="str">
+      <c r="I93" t="str">
         <v>28</v>
       </c>
-      <c r="H93" t="str">
+      <c r="J93" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K93" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L93" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
+        <v>634418219683784</v>
+      </c>
+      <c r="B94">
+        <v>7090997991</v>
+      </c>
+      <c r="C94">
         <v>56105672168</v>
       </c>
-      <c r="B94">
+      <c r="D94">
         <v>31996580847</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>41588483678</v>
       </c>
-      <c r="D94" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E94" t="str">
-        <v/>
-      </c>
       <c r="F94" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
         <v>黑白</v>
       </c>
-      <c r="G94" t="str">
+      <c r="I94" t="str">
         <v>30</v>
       </c>
-      <c r="H94" t="str">
+      <c r="J94" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K94" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L94" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
+        <v>634418219683784</v>
+      </c>
+      <c r="B95">
+        <v>7090997991</v>
+      </c>
+      <c r="C95">
         <v>56105672168</v>
       </c>
-      <c r="B95">
+      <c r="D95">
         <v>31777861189</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>29595909861</v>
       </c>
-      <c r="D95" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E95" t="str">
-        <v/>
-      </c>
       <c r="F95" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G95" t="str">
+      <c r="I95" t="str">
         <v>35</v>
       </c>
-      <c r="H95" t="str">
+      <c r="J95" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K95" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L95" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
+        <v>634418219683784</v>
+      </c>
+      <c r="B96">
+        <v>7090997991</v>
+      </c>
+      <c r="C96">
         <v>56105672168</v>
       </c>
-      <c r="B96">
+      <c r="D96">
         <v>31611492105</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>49440999376</v>
       </c>
-      <c r="D96" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E96" t="str">
-        <v/>
-      </c>
       <c r="F96" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
         <v>黑白</v>
       </c>
-      <c r="G96" t="str">
+      <c r="I96" t="str">
         <v>35</v>
       </c>
-      <c r="H96" t="str">
+      <c r="J96" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K96" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L96" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
+        <v>634418219683784</v>
+      </c>
+      <c r="B97">
+        <v>7090997991</v>
+      </c>
+      <c r="C97">
         <v>56105672168</v>
       </c>
-      <c r="B97">
+      <c r="D97">
         <v>27212929731</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>73751582160</v>
       </c>
-      <c r="D97" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E97" t="str">
-        <v/>
-      </c>
       <c r="F97" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G97" t="str">
+      <c r="I97" t="str">
         <v>33</v>
       </c>
-      <c r="H97" t="str">
+      <c r="J97" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K97" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L97" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
+        <v>634418219683784</v>
+      </c>
+      <c r="B98">
+        <v>7090997991</v>
+      </c>
+      <c r="C98">
         <v>56105672168</v>
       </c>
-      <c r="B98">
+      <c r="D98">
         <v>23207400557</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>67795407417</v>
       </c>
-      <c r="D98" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E98" t="str">
-        <v/>
-      </c>
       <c r="F98" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="str">
         <v>淡紫</v>
       </c>
-      <c r="G98" t="str">
+      <c r="I98" t="str">
         <v>31</v>
       </c>
-      <c r="H98" t="str">
+      <c r="J98" t="str">
         <v>Lilac</v>
+      </c>
+      <c r="K98" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3c605340-4973-4ee0-baa2-4a1907231f18.jpg</v>
+      </c>
+      <c r="L98" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
+        <v>634418219683784</v>
+      </c>
+      <c r="B99">
+        <v>7090997991</v>
+      </c>
+      <c r="C99">
         <v>56105672168</v>
       </c>
-      <c r="B99">
+      <c r="D99">
         <v>20351422008</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>81240268554</v>
       </c>
-      <c r="D99" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E99" t="str">
-        <v/>
-      </c>
       <c r="F99" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="str">
         <v>黑白</v>
       </c>
-      <c r="G99" t="str">
+      <c r="I99" t="str">
         <v>32</v>
       </c>
-      <c r="H99" t="str">
+      <c r="J99" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K99" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L99" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
+        <v>634418219683784</v>
+      </c>
+      <c r="B100">
+        <v>7090997991</v>
+      </c>
+      <c r="C100">
         <v>56105672168</v>
       </c>
-      <c r="B100">
+      <c r="D100">
         <v>17591490392</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>21060236733</v>
       </c>
-      <c r="D100" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E100" t="str">
-        <v/>
-      </c>
       <c r="F100" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G100" t="str">
+      <c r="I100" t="str">
         <v>38</v>
       </c>
-      <c r="H100" t="str">
+      <c r="J100" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K100" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2d44ed81-4ce2-4a92-8cfd-2d54bc26f1d2.jpg</v>
+      </c>
+      <c r="L100" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>634418219683784</v>
+      </c>
+      <c r="B101">
+        <v>7090997991</v>
+      </c>
+      <c r="C101">
         <v>56105672168</v>
       </c>
-      <c r="B101">
+      <c r="D101">
         <v>15517969038</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>89431280675</v>
       </c>
-      <c r="D101" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E101" t="str">
-        <v/>
-      </c>
       <c r="F101" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
         <v>黑白</v>
       </c>
-      <c r="G101" t="str">
+      <c r="I101" t="str">
         <v>38</v>
       </c>
-      <c r="H101" t="str">
+      <c r="J101" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K101" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L101" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
+        <v>634418219683784</v>
+      </c>
+      <c r="B102">
+        <v>7090997991</v>
+      </c>
+      <c r="C102">
         <v>56105672168</v>
       </c>
-      <c r="B102">
+      <c r="D102">
         <v>11726170371</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <v>96327765186</v>
       </c>
-      <c r="D102" t="str">
-        <v>8570</v>
-      </c>
-      <c r="E102" t="str">
-        <v/>
-      </c>
       <c r="F102" t="str">
+        <v>8570</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
         <v>黑白</v>
       </c>
-      <c r="G102" t="str">
+      <c r="I102" t="str">
         <v>28</v>
       </c>
-      <c r="H102" t="str">
+      <c r="J102" t="str">
         <v>Black And White</v>
+      </c>
+      <c r="K102" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6991d2c5-dece-4679-8fc7-e94c7ae7f3e0.jpg</v>
+      </c>
+      <c r="L102" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
+        <v>634418219683784</v>
+      </c>
+      <c r="B103">
+        <v>8800447468</v>
+      </c>
+      <c r="C103">
         <v>86408002747</v>
       </c>
-      <c r="B103">
+      <c r="D103">
         <v>98238531720</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <v>93718348191</v>
       </c>
-      <c r="D103" t="str">
+      <c r="F103" t="str">
         <v>8361P</v>
       </c>
-      <c r="E103" t="str">
-        <v/>
-      </c>
-      <c r="F103" t="str">
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G103" t="str">
+      <c r="I103" t="str">
         <v>29</v>
       </c>
-      <c r="H103" t="str">
+      <c r="J103" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K103" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L103" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
+        <v>634418219683784</v>
+      </c>
+      <c r="B104">
+        <v>8800447468</v>
+      </c>
+      <c r="C104">
         <v>86408002747</v>
       </c>
-      <c r="B104">
+      <c r="D104">
         <v>27718924386</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <v>13927595723</v>
       </c>
-      <c r="D104" t="str">
+      <c r="F104" t="str">
         <v>8361P</v>
       </c>
-      <c r="E104" t="str">
-        <v/>
-      </c>
-      <c r="F104" t="str">
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G104" t="str">
+      <c r="I104" t="str">
         <v>33</v>
       </c>
-      <c r="H104" t="str">
+      <c r="J104" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K104" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L104" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
+        <v>634418219683784</v>
+      </c>
+      <c r="B105">
+        <v>8800447468</v>
+      </c>
+      <c r="C105">
         <v>86408002747</v>
       </c>
-      <c r="B105">
+      <c r="D105">
         <v>92857609747</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <v>82937972359</v>
       </c>
-      <c r="D105" t="str">
+      <c r="F105" t="str">
         <v>8361P</v>
       </c>
-      <c r="E105" t="str">
-        <v/>
-      </c>
-      <c r="F105" t="str">
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G105" t="str">
+      <c r="I105" t="str">
         <v>37</v>
       </c>
-      <c r="H105" t="str">
+      <c r="J105" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K105" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L105" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
+        <v>634418219683784</v>
+      </c>
+      <c r="B106">
+        <v>8800447468</v>
+      </c>
+      <c r="C106">
         <v>86408002747</v>
       </c>
-      <c r="B106">
+      <c r="D106">
         <v>77197669731</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <v>11500375634</v>
       </c>
-      <c r="D106" t="str">
+      <c r="F106" t="str">
         <v>8361P</v>
       </c>
-      <c r="E106" t="str">
-        <v/>
-      </c>
-      <c r="F106" t="str">
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G106" t="str">
+      <c r="I106" t="str">
         <v>34</v>
       </c>
-      <c r="H106" t="str">
+      <c r="J106" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K106" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L106" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
+        <v>634418219683784</v>
+      </c>
+      <c r="B107">
+        <v>8800447468</v>
+      </c>
+      <c r="C107">
         <v>86408002747</v>
       </c>
-      <c r="B107">
+      <c r="D107">
         <v>72627802416</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <v>78737797663</v>
       </c>
-      <c r="D107" t="str">
+      <c r="F107" t="str">
         <v>8361P</v>
       </c>
-      <c r="E107" t="str">
-        <v/>
-      </c>
-      <c r="F107" t="str">
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G107" t="str">
+      <c r="I107" t="str">
         <v>38</v>
       </c>
-      <c r="H107" t="str">
+      <c r="J107" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K107" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L107" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
+        <v>634418219683784</v>
+      </c>
+      <c r="B108">
+        <v>8800447468</v>
+      </c>
+      <c r="C108">
         <v>86408002747</v>
       </c>
-      <c r="B108">
+      <c r="D108">
         <v>91936713108</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <v>87147284343</v>
       </c>
-      <c r="D108" t="str">
+      <c r="F108" t="str">
         <v>8361P</v>
       </c>
-      <c r="E108" t="str">
-        <v/>
-      </c>
-      <c r="F108" t="str">
+      <c r="G108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G108" t="str">
+      <c r="I108" t="str">
         <v>35</v>
       </c>
-      <c r="H108" t="str">
+      <c r="J108" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K108" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L108" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
+        <v>634418219683784</v>
+      </c>
+      <c r="B109">
+        <v>8800447468</v>
+      </c>
+      <c r="C109">
         <v>86408002747</v>
       </c>
-      <c r="B109">
+      <c r="D109">
         <v>45175715585</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <v>68788355343</v>
       </c>
-      <c r="D109" t="str">
+      <c r="F109" t="str">
         <v>8361P</v>
       </c>
-      <c r="E109" t="str">
-        <v/>
-      </c>
-      <c r="F109" t="str">
+      <c r="G109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G109" t="str">
+      <c r="I109" t="str">
         <v>28</v>
       </c>
-      <c r="H109" t="str">
+      <c r="J109" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K109" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L109" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
+        <v>634418219683784</v>
+      </c>
+      <c r="B110">
+        <v>8800447468</v>
+      </c>
+      <c r="C110">
         <v>86408002747</v>
       </c>
-      <c r="B110">
+      <c r="D110">
         <v>91307321953</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <v>18774520626</v>
       </c>
-      <c r="D110" t="str">
+      <c r="F110" t="str">
         <v>8361P</v>
       </c>
-      <c r="E110" t="str">
-        <v/>
-      </c>
-      <c r="F110" t="str">
+      <c r="G110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G110" t="str">
+      <c r="I110" t="str">
         <v>35</v>
       </c>
-      <c r="H110" t="str">
+      <c r="J110" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K110" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L110" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
+        <v>634418219683784</v>
+      </c>
+      <c r="B111">
+        <v>8800447468</v>
+      </c>
+      <c r="C111">
         <v>86408002747</v>
       </c>
-      <c r="B111">
+      <c r="D111">
         <v>12476116373</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <v>77981806138</v>
       </c>
-      <c r="D111" t="str">
+      <c r="F111" t="str">
         <v>8361P</v>
       </c>
-      <c r="E111" t="str">
-        <v/>
-      </c>
-      <c r="F111" t="str">
+      <c r="G111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G111" t="str">
+      <c r="I111" t="str">
         <v>32</v>
       </c>
-      <c r="H111" t="str">
+      <c r="J111" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K111" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L111" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
+        <v>634418219683784</v>
+      </c>
+      <c r="B112">
+        <v>8800447468</v>
+      </c>
+      <c r="C112">
         <v>86408002747</v>
       </c>
-      <c r="B112">
+      <c r="D112">
         <v>58970290766</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <v>84879359811</v>
       </c>
-      <c r="D112" t="str">
+      <c r="F112" t="str">
         <v>8361P</v>
       </c>
-      <c r="E112" t="str">
-        <v/>
-      </c>
-      <c r="F112" t="str">
+      <c r="G112" t="str">
+        <v/>
+      </c>
+      <c r="H112" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G112" t="str">
+      <c r="I112" t="str">
         <v>31</v>
       </c>
-      <c r="H112" t="str">
+      <c r="J112" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K112" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L112" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
+        <v>634418219683784</v>
+      </c>
+      <c r="B113">
+        <v>8800447468</v>
+      </c>
+      <c r="C113">
         <v>86408002747</v>
       </c>
-      <c r="B113">
+      <c r="D113">
         <v>43878845862</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <v>13441541714</v>
       </c>
-      <c r="D113" t="str">
+      <c r="F113" t="str">
         <v>8361P</v>
       </c>
-      <c r="E113" t="str">
-        <v/>
-      </c>
-      <c r="F113" t="str">
+      <c r="G113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G113" t="str">
+      <c r="I113" t="str">
         <v>36</v>
       </c>
-      <c r="H113" t="str">
+      <c r="J113" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K113" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L113" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
+        <v>634418219683784</v>
+      </c>
+      <c r="B114">
+        <v>8800447468</v>
+      </c>
+      <c r="C114">
         <v>86408002747</v>
       </c>
-      <c r="B114">
+      <c r="D114">
         <v>31951732697</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <v>53413947699</v>
       </c>
-      <c r="D114" t="str">
+      <c r="F114" t="str">
         <v>8361P</v>
       </c>
-      <c r="E114" t="str">
-        <v/>
-      </c>
-      <c r="F114" t="str">
+      <c r="G114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G114" t="str">
+      <c r="I114" t="str">
         <v>28</v>
       </c>
-      <c r="H114" t="str">
+      <c r="J114" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K114" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L114" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
+        <v>634418219683784</v>
+      </c>
+      <c r="B115">
+        <v>8800447468</v>
+      </c>
+      <c r="C115">
         <v>86408002747</v>
       </c>
-      <c r="B115">
+      <c r="D115">
         <v>10764117839</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <v>92761400711</v>
       </c>
-      <c r="D115" t="str">
+      <c r="F115" t="str">
         <v>8361P</v>
       </c>
-      <c r="E115" t="str">
-        <v/>
-      </c>
-      <c r="F115" t="str">
+      <c r="G115" t="str">
+        <v/>
+      </c>
+      <c r="H115" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G115" t="str">
+      <c r="I115" t="str">
         <v>32</v>
       </c>
-      <c r="H115" t="str">
+      <c r="J115" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K115" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L115" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
+        <v>634418219683784</v>
+      </c>
+      <c r="B116">
+        <v>8800447468</v>
+      </c>
+      <c r="C116">
         <v>86408002747</v>
       </c>
-      <c r="B116">
+      <c r="D116">
         <v>98662152572</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <v>52431104477</v>
       </c>
-      <c r="D116" t="str">
+      <c r="F116" t="str">
         <v>8361P</v>
       </c>
-      <c r="E116" t="str">
-        <v/>
-      </c>
-      <c r="F116" t="str">
+      <c r="G116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G116" t="str">
+      <c r="I116" t="str">
         <v>33</v>
       </c>
-      <c r="H116" t="str">
+      <c r="J116" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K116" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L116" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
+        <v>634418219683784</v>
+      </c>
+      <c r="B117">
+        <v>8800447468</v>
+      </c>
+      <c r="C117">
         <v>86408002747</v>
       </c>
-      <c r="B117">
+      <c r="D117">
         <v>58998113071</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <v>10953929959</v>
       </c>
-      <c r="D117" t="str">
+      <c r="F117" t="str">
         <v>8361P</v>
       </c>
-      <c r="E117" t="str">
-        <v/>
-      </c>
-      <c r="F117" t="str">
+      <c r="G117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G117" t="str">
+      <c r="I117" t="str">
         <v>31</v>
       </c>
-      <c r="H117" t="str">
+      <c r="J117" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K117" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L117" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
+        <v>634418219683784</v>
+      </c>
+      <c r="B118">
+        <v>8800447468</v>
+      </c>
+      <c r="C118">
         <v>86408002747</v>
       </c>
-      <c r="B118">
+      <c r="D118">
         <v>33808247180</v>
       </c>
-      <c r="C118">
+      <c r="E118">
         <v>21019412784</v>
       </c>
-      <c r="D118" t="str">
+      <c r="F118" t="str">
         <v>8361P</v>
       </c>
-      <c r="E118" t="str">
-        <v/>
-      </c>
-      <c r="F118" t="str">
+      <c r="G118" t="str">
+        <v/>
+      </c>
+      <c r="H118" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G118" t="str">
+      <c r="I118" t="str">
         <v>30</v>
       </c>
-      <c r="H118" t="str">
+      <c r="J118" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K118" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L118" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
+        <v>634418219683784</v>
+      </c>
+      <c r="B119">
+        <v>8800447468</v>
+      </c>
+      <c r="C119">
         <v>86408002747</v>
       </c>
-      <c r="B119">
+      <c r="D119">
         <v>86653712180</v>
       </c>
-      <c r="C119">
+      <c r="E119">
         <v>71381004724</v>
       </c>
-      <c r="D119" t="str">
+      <c r="F119" t="str">
         <v>8361P</v>
       </c>
-      <c r="E119" t="str">
-        <v/>
-      </c>
-      <c r="F119" t="str">
+      <c r="G119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G119" t="str">
+      <c r="I119" t="str">
         <v>30</v>
       </c>
-      <c r="H119" t="str">
+      <c r="J119" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K119" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L119" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
+        <v>634418219683784</v>
+      </c>
+      <c r="B120">
+        <v>8800447468</v>
+      </c>
+      <c r="C120">
         <v>86408002747</v>
       </c>
-      <c r="B120">
+      <c r="D120">
         <v>81177285562</v>
       </c>
-      <c r="C120">
+      <c r="E120">
         <v>33051464217</v>
       </c>
-      <c r="D120" t="str">
+      <c r="F120" t="str">
         <v>8361P</v>
       </c>
-      <c r="E120" t="str">
-        <v/>
-      </c>
-      <c r="F120" t="str">
+      <c r="G120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G120" t="str">
+      <c r="I120" t="str">
         <v>37</v>
       </c>
-      <c r="H120" t="str">
+      <c r="J120" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K120" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L120" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
+        <v>634418219683784</v>
+      </c>
+      <c r="B121">
+        <v>8800447468</v>
+      </c>
+      <c r="C121">
         <v>86408002747</v>
       </c>
-      <c r="B121">
+      <c r="D121">
         <v>24610002031</v>
       </c>
-      <c r="C121">
+      <c r="E121">
         <v>92641472338</v>
       </c>
-      <c r="D121" t="str">
+      <c r="F121" t="str">
         <v>8361P</v>
       </c>
-      <c r="E121" t="str">
-        <v/>
-      </c>
-      <c r="F121" t="str">
+      <c r="G121" t="str">
+        <v/>
+      </c>
+      <c r="H121" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G121" t="str">
+      <c r="I121" t="str">
         <v>34</v>
       </c>
-      <c r="H121" t="str">
+      <c r="J121" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K121" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L121" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
+        <v>634418219683784</v>
+      </c>
+      <c r="B122">
+        <v>8800447468</v>
+      </c>
+      <c r="C122">
         <v>86408002747</v>
       </c>
-      <c r="B122">
+      <c r="D122">
         <v>88385170556</v>
       </c>
-      <c r="C122">
+      <c r="E122">
         <v>68428717413</v>
       </c>
-      <c r="D122" t="str">
+      <c r="F122" t="str">
         <v>8361P</v>
       </c>
-      <c r="E122" t="str">
-        <v/>
-      </c>
-      <c r="F122" t="str">
+      <c r="G122" t="str">
+        <v/>
+      </c>
+      <c r="H122" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G122" t="str">
+      <c r="I122" t="str">
         <v>36</v>
       </c>
-      <c r="H122" t="str">
+      <c r="J122" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K122" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L122" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
+        <v>634418219683784</v>
+      </c>
+      <c r="B123">
+        <v>8800447468</v>
+      </c>
+      <c r="C123">
         <v>86408002747</v>
       </c>
-      <c r="B123">
+      <c r="D123">
         <v>24562116533</v>
       </c>
-      <c r="C123">
+      <c r="E123">
         <v>76628583607</v>
       </c>
-      <c r="D123" t="str">
+      <c r="F123" t="str">
         <v>8361P</v>
       </c>
-      <c r="E123" t="str">
-        <v/>
-      </c>
-      <c r="F123" t="str">
+      <c r="G123" t="str">
+        <v/>
+      </c>
+      <c r="H123" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G123" t="str">
+      <c r="I123" t="str">
         <v>38</v>
       </c>
-      <c r="H123" t="str">
+      <c r="J123" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K123" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6ba15db1-a9cd-4cd7-851b-d3ae23b4b143.jpg</v>
+      </c>
+      <c r="L123" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
+        <v>634418219683784</v>
+      </c>
+      <c r="B124">
+        <v>8800447468</v>
+      </c>
+      <c r="C124">
         <v>86408002747</v>
       </c>
-      <c r="B124">
+      <c r="D124">
         <v>93594835212</v>
       </c>
-      <c r="C124">
+      <c r="E124">
         <v>38191253094</v>
       </c>
-      <c r="D124" t="str">
+      <c r="F124" t="str">
         <v>8361P</v>
       </c>
-      <c r="E124" t="str">
-        <v/>
-      </c>
-      <c r="F124" t="str">
+      <c r="G124" t="str">
+        <v/>
+      </c>
+      <c r="H124" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G124" t="str">
+      <c r="I124" t="str">
         <v>29</v>
       </c>
-      <c r="H124" t="str">
+      <c r="J124" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K124" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fb9cbf0-9db3-47ae-a5f7-663ef94ce297.jpg</v>
+      </c>
+      <c r="L124" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H124"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L124"/>
   </ignoredErrors>
 </worksheet>
 </file>